--- a/Test-case-priyoshop.xlsx
+++ b/Test-case-priyoshop.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88016\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88016\Documents\git\manual-testing-prioshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Test case Priyoshop Mobile" sheetId="6" r:id="rId3"/>
     <sheet name="Bug Report" sheetId="7" r:id="rId4"/>
     <sheet name="Test Metrics" sheetId="10" r:id="rId5"/>
-    <sheet name=" Report Generate" sheetId="12" r:id="rId6"/>
+    <sheet name=" Test Report " sheetId="12" r:id="rId6"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="495">
   <si>
     <t>Product Name</t>
   </si>
@@ -1172,21 +1172,6 @@
     <t xml:space="preserve">Percentage of Test Cases Passed  </t>
   </si>
   <si>
-    <t xml:space="preserve">      (42/42)*100 = 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      (0/42)*100 = 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       (29/42)*100 = 69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        (13/42)*100 = 30.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         (0/42)*100 = 0</t>
-  </si>
-  <si>
     <t xml:space="preserve">                N/A</t>
   </si>
   <si>
@@ -1358,15 +1343,6 @@
     <t>17.Glossary:</t>
   </si>
   <si>
-    <t>The objective of this document is to test the functionality of the ''PriyoShop'.'</t>
-  </si>
-  <si>
-    <t>Test Strategy, Project Plan, Project Guidelines, SRS(System Requirement Specification), Use Case Documents.</t>
-  </si>
-  <si>
-    <t>We follow Agile Methodology in this project.</t>
-  </si>
-  <si>
     <t>If any of the major functionalities are not functional or system experiences login issues then testing should suspend</t>
   </si>
   <si>
@@ -1376,39 +1352,12 @@
     <t>Perform test execution,Test Reporting,Bug Reporting,Mind-map etc</t>
   </si>
   <si>
-    <t>Test Plan training course to improve the skills of resources in the project to achieve the desired goals</t>
-  </si>
-  <si>
-    <t>Hardware,Software and any other tools that are needed for a test environment</t>
-  </si>
-  <si>
-    <t>List of documents need to be delivered at each phases of testing life cycle. The list of all test artifacts is Test Cases and Bug Report</t>
-  </si>
-  <si>
-    <t>Project manager should agree on completion of the project and determine the steps to proceed further.</t>
-  </si>
-  <si>
     <t>PriyoShop-001</t>
   </si>
   <si>
     <t>The features which are  not to be Tested Payment Using Paypal Features is above to remove from the application.There is no need to test this feature</t>
   </si>
   <si>
-    <t>The features which are to be tested are Login Page,Registration Page,Log Out Page</t>
-  </si>
-  <si>
-    <t>Testing should be done on both Front end and Back end of the application on the Windows.</t>
-  </si>
-  <si>
-    <t>Verify if the test environment is available and ready for use. Verify test tools installed in the environment are ready for use. Verify if test data is available and validated for correctness of data</t>
-  </si>
-  <si>
-    <t>Verify if all tests planned have been run.Verify if all high risk areas are completely tested.</t>
-  </si>
-  <si>
-    <t>It used to define terms and acronyms used in the document, and testing in general to eliminate confusion and promote consistent communication</t>
-  </si>
-  <si>
     <t>Percentage of Test Cases Not Executed</t>
   </si>
   <si>
@@ -1422,6 +1371,156 @@
   </si>
   <si>
     <t>Test Metrics</t>
+  </si>
+  <si>
+    <t>It is System Test Plan for Online Shopping System. PriyoShop is a web application,provides access to new user create an account in the website.User purchases any products in the online system then choice of products add to cart then bill pay by bkash, by nagad,by visa etc.</t>
+  </si>
+  <si>
+    <t>Testing should be done on both Front end and Back end of the application on the Windows.User interface: Personal information, just like User name,email,mobile number,address,date of birth etc</t>
+  </si>
+  <si>
+    <t>Test Plan,Test Strategy, Project Plan, Project Guidelines, SRS(System Requirement Specification), Use Case Documents,High Level Design docs, Low Level Design docs, Process guide line docs, prototypes.</t>
+  </si>
+  <si>
+    <t>The features which are to be tested are Login Page,Registration Page,Log Out Page etc</t>
+  </si>
+  <si>
+    <t>We follow SDLC in this project.</t>
+  </si>
+  <si>
+    <t>Verify if the test environment is available and ready for use. Verify test tools installed in the environment are ready for use.a) Test design -Team information, responsibilities,schedule, requirements, Test cases template etc Verify if test data is available and validated for correctness of data</t>
+  </si>
+  <si>
+    <t>Verify if all tests planned have been run.Verify if all high risk areas are completely tested.All possible test cases executed maximum defects fixed , final regression performed successfully, confidence on test process, time limitations, budget limitations</t>
+  </si>
+  <si>
+    <t>Training Program on Manual Testing and API Testing Use Postman,Test automation training using Selenium Tool</t>
+  </si>
+  <si>
+    <t>Hardware,Software and any other tools that are needed for a test environment. Application Type: Web Application, Internet and Public. Server Side: Windows Server, Web Server,Data Storage Tools Client Side: Windows 11,XLS Sheet,Xmind Etc</t>
+  </si>
+  <si>
+    <t>List of documents need to be delivered at each phases of testing life cycle. The list of all test artifacts is Test Cases and Bug Report,Test Plan,Review Reports,RTM Test Scenario docs,Defects Report,Test Summary Report etc</t>
+  </si>
+  <si>
+    <t>Tasks Author/Role Date &amp; Signature 1)Test Plan Documentation Ehsan (Test Lead) 2)Review SomeName(QA Analist) 3) Approval SomeName(Project Manager)</t>
+  </si>
+  <si>
+    <t>AUT-Application Under Test…PIN-Project Initiation Note….SRS-Software Requirement Specification..</t>
+  </si>
+  <si>
+    <t>TC043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add To Cart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Open a browser           2.Go to the URL   www.priyoshop.com/      3.Choice of products add to cart system       </t>
+  </si>
+  <si>
+    <t>TC044</t>
+  </si>
+  <si>
+    <t>Search of Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Open a Browser         2.Go to URL    www.Priyoshop.com  3.User search of products </t>
+  </si>
+  <si>
+    <t>TC045</t>
+  </si>
+  <si>
+    <t>Contact with User Email and Phone no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Open a browser     2.Go to the URL    www.priyoshop.com     3.Contact with email and phone no  </t>
+  </si>
+  <si>
+    <t>Email:support@priyoshop.com Phone:09636-102030</t>
+  </si>
+  <si>
+    <t>TC046</t>
+  </si>
+  <si>
+    <t>User Communication with facebook,instragram,twitter etc</t>
+  </si>
+  <si>
+    <t>1.Open a browser  2. Go to the URL  www.priyoshop.com  3.communication with facebook,instragram,whatsup etc</t>
+  </si>
+  <si>
+    <t>TC047</t>
+  </si>
+  <si>
+    <t>User Security policy</t>
+  </si>
+  <si>
+    <t>1.Open a browser         2. go to the URL   www.priyoshop.com   3.user security policy maintain successfully</t>
+  </si>
+  <si>
+    <t>TC048</t>
+  </si>
+  <si>
+    <t>Orders,Stock Availability&amp;Pricining</t>
+  </si>
+  <si>
+    <t>1.Open a browser           2.go to the URL    www.priyoshop.com  3.orders,stock &amp; pricing successfully</t>
+  </si>
+  <si>
+    <t>TC049</t>
+  </si>
+  <si>
+    <t>Shipping &amp; Replacement</t>
+  </si>
+  <si>
+    <t>1.Open a browser           2. go to the URL   www.priyoshop.com     3.shipping &amp; replacement successfully</t>
+  </si>
+  <si>
+    <t>TC050</t>
+  </si>
+  <si>
+    <t>Privacy Policy</t>
+  </si>
+  <si>
+    <t>1.Open a browser           2.go to the URL     www.priyoshop.com       3. privacy policy maintain successfully</t>
+  </si>
+  <si>
+    <t>TC051</t>
+  </si>
+  <si>
+    <t>1.Open a browser       2.go to the URL   www.priyoshop.com   3.user orders with Valid user name &amp; valid password Successfully   4.Login successfully</t>
+  </si>
+  <si>
+    <t>User name:Aysha Akter   Password:1234@&amp;abcd</t>
+  </si>
+  <si>
+    <t>TC052</t>
+  </si>
+  <si>
+    <t>Orders in Products</t>
+  </si>
+  <si>
+    <t>Payment System</t>
+  </si>
+  <si>
+    <t>1.Open a browser           2.go to the URL     www.priyoshop.com       3. payment policy maintain successfully</t>
+  </si>
+  <si>
+    <t>By Bkash,By Nagad,Vasa Card etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      (52/52)*100 = 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      (0/52)*100 = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       (39/52)*100 = 75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        (13/52)*100 = 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         (0/52)*100 = 0</t>
   </si>
 </sst>
 </file>
@@ -1656,7 +1755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1813,12 +1912,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1905,6 +2013,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3474,513 +3600,513 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36:K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="63" t="s">
+        <v>427</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="68" t="s">
+        <v>438</v>
+      </c>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="66"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="64" t="s">
+        <v>418</v>
+      </c>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="73" t="s">
+        <v>445</v>
+      </c>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="66"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="64" t="s">
+        <v>419</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="73" t="s">
+        <v>446</v>
+      </c>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="66"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="64" t="s">
+        <v>420</v>
+      </c>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="73" t="s">
+        <v>447</v>
+      </c>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="66"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="64" t="s">
+        <v>421</v>
+      </c>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="73" t="s">
+        <v>448</v>
+      </c>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="66"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="64" t="s">
+        <v>423</v>
+      </c>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="73" t="s">
+        <v>439</v>
+      </c>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="66"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="64" t="s">
+        <v>422</v>
+      </c>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="68" t="s">
+        <v>449</v>
+      </c>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="66"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="64" t="s">
+        <v>424</v>
+      </c>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="73" t="s">
+        <v>450</v>
+      </c>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="66"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="64" t="s">
+        <v>425</v>
+      </c>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="73" t="s">
+        <v>451</v>
+      </c>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="66"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="65" t="s">
+        <v>426</v>
+      </c>
+      <c r="C22" s="65"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="73" t="s">
+        <v>435</v>
+      </c>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="75"/>
+      <c r="K23" s="75"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="76" t="s">
+        <v>428</v>
+      </c>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="73" t="s">
+        <v>436</v>
+      </c>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="76" t="s">
+        <v>429</v>
+      </c>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="68" t="s">
+        <v>437</v>
+      </c>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="69"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="76"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="69"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="76" t="s">
+        <v>430</v>
+      </c>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="73" t="s">
+        <v>452</v>
+      </c>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="76"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="76" t="s">
+        <v>431</v>
+      </c>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="73" t="s">
+        <v>453</v>
+      </c>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="76"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="74"/>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="76" t="s">
         <v>432</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="56" t="s">
-        <v>422</v>
-      </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="60" t="s">
-        <v>450</v>
-      </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="58"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="56" t="s">
-        <v>423</v>
-      </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="65" t="s">
-        <v>440</v>
-      </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="58"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="56" t="s">
-        <v>424</v>
-      </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="65" t="s">
-        <v>453</v>
-      </c>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="56" t="s">
-        <v>425</v>
-      </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="65" t="s">
-        <v>441</v>
-      </c>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="58"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="56" t="s">
-        <v>426</v>
-      </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="65" t="s">
-        <v>452</v>
-      </c>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="56" t="s">
-        <v>428</v>
-      </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="65" t="s">
-        <v>451</v>
-      </c>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="56" t="s">
-        <v>427</v>
-      </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="60" t="s">
-        <v>442</v>
-      </c>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="58"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="56" t="s">
-        <v>429</v>
-      </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="65" t="s">
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="73" t="s">
         <v>454</v>
       </c>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="58"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="56" t="s">
-        <v>430</v>
-      </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="65" t="s">
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="76" t="s">
+        <v>433</v>
+      </c>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="73" t="s">
         <v>455</v>
       </c>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="57" t="s">
-        <v>431</v>
-      </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="65" t="s">
-        <v>443</v>
-      </c>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="68" t="s">
-        <v>433</v>
-      </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="65" t="s">
-        <v>444</v>
-      </c>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="B25" s="68"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="68" t="s">
+      <c r="F34" s="74"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="76"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="76" t="s">
         <v>434</v>
       </c>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="60" t="s">
-        <v>445</v>
-      </c>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-    </row>
-    <row r="27" spans="2:11">
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-    </row>
-    <row r="28" spans="2:11">
-      <c r="B28" s="68" t="s">
-        <v>435</v>
-      </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="65" t="s">
-        <v>446</v>
-      </c>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
-    </row>
-    <row r="29" spans="2:11">
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="68" t="s">
-        <v>436</v>
-      </c>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="65" t="s">
-        <v>447</v>
-      </c>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
-    </row>
-    <row r="32" spans="2:11">
-      <c r="B32" s="68" t="s">
-        <v>437</v>
-      </c>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="65" t="s">
-        <v>448</v>
-      </c>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
-    </row>
-    <row r="33" spans="2:11">
-      <c r="B33" s="68"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-    </row>
-    <row r="34" spans="2:11">
-      <c r="B34" s="68" t="s">
-        <v>438</v>
-      </c>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="65" t="s">
-        <v>449</v>
-      </c>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="66"/>
-    </row>
-    <row r="35" spans="2:11">
-      <c r="B35" s="68"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="66"/>
-    </row>
-    <row r="36" spans="2:11">
-      <c r="B36" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="65" t="s">
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="73" t="s">
         <v>456</v>
       </c>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="66"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="74"/>
+      <c r="H36" s="74"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="74"/>
+      <c r="K36" s="74"/>
     </row>
     <row r="37" spans="2:11">
-      <c r="B37" s="68"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="66"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -4026,10 +4152,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="12.5"/>
@@ -4086,7 +4212,7 @@
         <v>10</v>
       </c>
       <c r="K2" s="31">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="10"/>
@@ -4190,7 +4316,7 @@
         <v>14</v>
       </c>
       <c r="K7" s="32">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="L7" s="33"/>
       <c r="M7" s="34"/>
@@ -5965,28 +6091,382 @@
       </c>
       <c r="N52" s="19"/>
     </row>
-    <row r="53" spans="1:14">
-      <c r="A53" s="5"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="5"/>
+    <row r="53" spans="1:14" ht="62.5">
+      <c r="A53" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B53" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E53" s="56" t="s">
+        <v>459</v>
+      </c>
+      <c r="F53" s="56" t="s">
+        <v>22</v>
+      </c>
       <c r="G53" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="A54" s="5"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="5"/>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="A55" s="5"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="5"/>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="A56" s="5"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="5"/>
+      <c r="H53" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="J53" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="K53" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="M53" s="55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="62.5">
+      <c r="A54" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B54" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E54" s="56" t="s">
+        <v>462</v>
+      </c>
+      <c r="F54" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I54" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="J54" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="K54" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="M54" s="55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="62.5">
+      <c r="A55" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B55" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E55" s="56" t="s">
+        <v>465</v>
+      </c>
+      <c r="F55" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I55" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="J55" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="K55" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="M55" s="55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="75">
+      <c r="A56" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B56" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E56" s="56" t="s">
+        <v>469</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I56" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="J56" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="K56" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="M56" s="55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="62.5">
+      <c r="A57" s="60" t="s">
+        <v>470</v>
+      </c>
+      <c r="B57" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="C57" s="61" t="s">
+        <v>471</v>
+      </c>
+      <c r="D57" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="E57" s="56" t="s">
+        <v>472</v>
+      </c>
+      <c r="F57" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="J57" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="K57" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="M57" s="55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="62.5">
+      <c r="A58" s="60" t="s">
+        <v>473</v>
+      </c>
+      <c r="B58" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="C58" s="61" t="s">
+        <v>474</v>
+      </c>
+      <c r="D58" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="E58" s="56" t="s">
+        <v>475</v>
+      </c>
+      <c r="F58" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I58" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="J58" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="K58" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="M58" s="55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="62.5">
+      <c r="A59" s="60" t="s">
+        <v>476</v>
+      </c>
+      <c r="B59" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="C59" s="61" t="s">
+        <v>477</v>
+      </c>
+      <c r="D59" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="E59" s="56" t="s">
+        <v>478</v>
+      </c>
+      <c r="F59" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I59" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="J59" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="K59" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="M59" s="55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="62.5">
+      <c r="A60" s="60" t="s">
+        <v>479</v>
+      </c>
+      <c r="B60" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" s="61" t="s">
+        <v>480</v>
+      </c>
+      <c r="D60" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="E60" s="56" t="s">
+        <v>481</v>
+      </c>
+      <c r="F60" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="G60" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I60" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="J60" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="K60" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="M60" s="55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="87.5">
+      <c r="A61" s="60" t="s">
+        <v>482</v>
+      </c>
+      <c r="B61" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="C61" s="61" t="s">
+        <v>486</v>
+      </c>
+      <c r="D61" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="E61" s="56" t="s">
+        <v>483</v>
+      </c>
+      <c r="F61" s="62" t="s">
+        <v>484</v>
+      </c>
+      <c r="G61" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="H61" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I61" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="J61" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="K61" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="M61" s="55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="62.5">
+      <c r="A62" s="60" t="s">
+        <v>485</v>
+      </c>
+      <c r="B62" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="C62" s="61" t="s">
+        <v>487</v>
+      </c>
+      <c r="D62" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="E62" s="56" t="s">
+        <v>488</v>
+      </c>
+      <c r="F62" s="62" t="s">
+        <v>489</v>
+      </c>
+      <c r="G62" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I62" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="J62" s="56" t="s">
+        <v>302</v>
+      </c>
+      <c r="K62" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="M62" s="55" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6005,9 +6485,10 @@
     <hyperlink ref="L15" r:id="rId13"/>
     <hyperlink ref="L16" r:id="rId14"/>
     <hyperlink ref="L24" r:id="rId15"/>
+    <hyperlink ref="F55" r:id="rId16" display="support@priyoshop.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -6015,7 +6496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -6526,7 +7007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -6703,7 +7184,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:L3"/>
+      <selection activeCell="B4" sqref="B4:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -6714,100 +7195,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="29.5">
-      <c r="A1" s="70" t="s">
-        <v>461</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="72"/>
+      <c r="A1" s="78" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="80"/>
     </row>
     <row r="2" spans="1:12" ht="12.5" customHeight="1">
-      <c r="A2" s="73" t="s">
-        <v>420</v>
-      </c>
-      <c r="B2" s="75" t="s">
+      <c r="A2" s="81" t="s">
+        <v>415</v>
+      </c>
+      <c r="B2" s="83" t="s">
         <v>359</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="85" t="s">
         <v>367</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="79" t="s">
-        <v>421</v>
-      </c>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="87" t="s">
+        <v>416</v>
+      </c>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
     </row>
     <row r="3" spans="1:12" ht="20" customHeight="1">
-      <c r="A3" s="74"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="28">
         <v>1</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>458</v>
-      </c>
-      <c r="C4" s="69" t="s">
+        <v>441</v>
+      </c>
+      <c r="C4" s="77" t="s">
         <v>365</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="78" t="s">
-        <v>378</v>
-      </c>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="86" t="s">
+        <v>490</v>
+      </c>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="28">
         <v>2</v>
       </c>
       <c r="B5" s="53" t="s">
-        <v>457</v>
-      </c>
-      <c r="C5" s="69" t="s">
+        <v>440</v>
+      </c>
+      <c r="C5" s="77" t="s">
         <v>366</v>
       </c>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="78" t="s">
-        <v>379</v>
-      </c>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="86" t="s">
+        <v>491</v>
+      </c>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="28">
@@ -6816,20 +7297,20 @@
       <c r="B6" s="53" t="s">
         <v>377</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="77" t="s">
         <v>368</v>
       </c>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="78" t="s">
-        <v>380</v>
-      </c>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="86" t="s">
+        <v>492</v>
+      </c>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="28">
@@ -6838,20 +7319,20 @@
       <c r="B7" s="53" t="s">
         <v>360</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="77" t="s">
         <v>369</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="78" t="s">
-        <v>381</v>
-      </c>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="86" t="s">
+        <v>493</v>
+      </c>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="28">
@@ -6860,42 +7341,42 @@
       <c r="B8" s="54" t="s">
         <v>361</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="77" t="s">
         <v>370</v>
       </c>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="78" t="s">
-        <v>382</v>
-      </c>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="86" t="s">
+        <v>494</v>
+      </c>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="28">
         <v>6</v>
       </c>
       <c r="B9" s="53" t="s">
-        <v>384</v>
-      </c>
-      <c r="C9" s="69" t="s">
+        <v>379</v>
+      </c>
+      <c r="C9" s="77" t="s">
         <v>371</v>
       </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="78" t="s">
-        <v>383</v>
-      </c>
-      <c r="K9" s="78"/>
-      <c r="L9" s="78"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="86" t="s">
+        <v>378</v>
+      </c>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="28">
@@ -6904,20 +7385,20 @@
       <c r="B10" s="54" t="s">
         <v>362</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="77" t="s">
         <v>372</v>
       </c>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="78" t="s">
-        <v>383</v>
-      </c>
-      <c r="K10" s="78"/>
-      <c r="L10" s="78"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="86" t="s">
+        <v>378</v>
+      </c>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="28">
@@ -6926,64 +7407,64 @@
       <c r="B11" s="54" t="s">
         <v>363</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="77" t="s">
         <v>373</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="78" t="s">
-        <v>383</v>
-      </c>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="86" t="s">
+        <v>378</v>
+      </c>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="28">
         <v>9</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>459</v>
-      </c>
-      <c r="C12" s="69" t="s">
+        <v>442</v>
+      </c>
+      <c r="C12" s="77" t="s">
         <v>374</v>
       </c>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="78" t="s">
-        <v>383</v>
-      </c>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="86" t="s">
+        <v>378</v>
+      </c>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="28">
         <v>10</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>460</v>
-      </c>
-      <c r="C13" s="69" t="s">
+        <v>443</v>
+      </c>
+      <c r="C13" s="77" t="s">
         <v>375</v>
       </c>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="78" t="s">
-        <v>383</v>
-      </c>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="86" t="s">
+        <v>378</v>
+      </c>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="28">
@@ -6992,20 +7473,20 @@
       <c r="B14" s="54" t="s">
         <v>364</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="77" t="s">
         <v>376</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="78" t="s">
-        <v>383</v>
-      </c>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="86" t="s">
+        <v>378</v>
+      </c>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="13"/>
@@ -7041,6 +7522,7 @@
     <mergeCell ref="C4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7048,8 +7530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -7065,111 +7547,111 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="30">
-      <c r="B2" s="105" t="s">
-        <v>385</v>
-      </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
+      <c r="B2" s="113" t="s">
+        <v>380</v>
+      </c>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
     </row>
     <row r="3" spans="2:13" ht="13">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="105" t="s">
         <v>352</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="104" t="s">
+      <c r="C3" s="105"/>
+      <c r="D3" s="112" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
       <c r="I3" s="21" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="J3" s="20"/>
       <c r="K3" s="19" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="104" t="s">
-        <v>387</v>
-      </c>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="112" t="s">
+        <v>382</v>
+      </c>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="105" t="s">
         <v>353</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
       <c r="I5" s="27" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="J5" s="27" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="105" t="s">
         <v>354</v>
       </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="103" t="s">
+      <c r="C6" s="105"/>
+      <c r="D6" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
       <c r="I6" s="28">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="105" t="s">
         <v>355</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="104" t="s">
+      <c r="C7" s="105"/>
+      <c r="D7" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
       <c r="I7" s="28">
         <v>13</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="97" t="s">
-        <v>388</v>
-      </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="104" t="s">
+      <c r="B8" s="105" t="s">
+        <v>383</v>
+      </c>
+      <c r="C8" s="105"/>
+      <c r="D8" s="112" t="s">
         <v>356</v>
       </c>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
       <c r="I8" s="28">
         <v>0</v>
       </c>
@@ -7178,28 +7660,28 @@
       </c>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="95" t="s">
-        <v>386</v>
-      </c>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
+      <c r="B9" s="103" t="s">
+        <v>381</v>
+      </c>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
       <c r="I9" s="28">
         <v>0</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
     </row>
     <row r="11" spans="2:13" ht="13">
       <c r="B11" s="14" t="s">
@@ -7218,41 +7700,41 @@
         <v>330</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="97"/>
-      <c r="C12" s="98">
-        <v>29</v>
-      </c>
-      <c r="D12" s="99">
+      <c r="B12" s="105"/>
+      <c r="C12" s="106">
+        <v>39</v>
+      </c>
+      <c r="D12" s="107">
         <v>13</v>
       </c>
-      <c r="E12" s="100">
+      <c r="E12" s="108">
         <v>0</v>
       </c>
-      <c r="F12" s="101">
+      <c r="F12" s="109">
         <v>0</v>
       </c>
-      <c r="G12" s="102">
-        <v>42</v>
+      <c r="G12" s="110">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="97"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="102"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="110"/>
     </row>
     <row r="14" spans="2:13" ht="13">
       <c r="B14" s="16" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C14" s="17">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D14" s="17">
         <v>13</v>
@@ -7264,322 +7746,322 @@
         <v>0</v>
       </c>
       <c r="G14" s="17">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="30">
-      <c r="B17" s="91" t="s">
-        <v>390</v>
-      </c>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="92"/>
+      <c r="B17" s="99" t="s">
+        <v>385</v>
+      </c>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
     </row>
     <row r="18" spans="2:7" ht="13">
-      <c r="B18" s="93" t="s">
-        <v>391</v>
-      </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
+      <c r="B18" s="101" t="s">
+        <v>386</v>
+      </c>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
       <c r="E18" s="20"/>
       <c r="F18" s="21" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="87" t="s">
+      <c r="B19" s="95" t="s">
         <v>358</v>
       </c>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
       <c r="E19" s="22"/>
       <c r="F19" s="23" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="89" t="s">
-        <v>392</v>
-      </c>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
+      <c r="B20" s="97" t="s">
+        <v>387</v>
+      </c>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
       <c r="E20" s="24"/>
       <c r="F20" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="102"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="102"/>
+      <c r="G21" s="102"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="93"/>
+      <c r="C22" s="94" t="s">
+        <v>391</v>
+      </c>
+      <c r="D22" s="92" t="s">
+        <v>392</v>
+      </c>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="93"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="93"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="91" t="s">
+        <v>394</v>
+      </c>
+      <c r="C25" s="69" t="s">
+        <v>396</v>
+      </c>
+      <c r="D25" s="74" t="s">
+        <v>405</v>
+      </c>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="91"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="91"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="91" t="s">
         <v>395</v>
       </c>
-      <c r="G20" s="25" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="94"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="85"/>
-      <c r="C22" s="86" t="s">
-        <v>396</v>
-      </c>
-      <c r="D22" s="84" t="s">
+      <c r="C28" s="74" t="s">
         <v>397</v>
       </c>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="85"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="85"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="83" t="s">
+      <c r="D28" s="74" t="s">
+        <v>402</v>
+      </c>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="91"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="91"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="91" t="s">
+        <v>394</v>
+      </c>
+      <c r="C31" s="69" t="s">
+        <v>398</v>
+      </c>
+      <c r="D31" s="74" t="s">
+        <v>403</v>
+      </c>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="91"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="91"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="91" t="s">
+        <v>394</v>
+      </c>
+      <c r="C34" s="69" t="s">
+        <v>298</v>
+      </c>
+      <c r="D34" s="69" t="s">
+        <v>404</v>
+      </c>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="91"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="91"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="91" t="s">
+        <v>394</v>
+      </c>
+      <c r="C37" s="74" t="s">
         <v>399</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="D37" s="74" t="s">
+        <v>406</v>
+      </c>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="91"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="74"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="91"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="91" t="s">
+        <v>394</v>
+      </c>
+      <c r="C40" s="74" t="s">
+        <v>400</v>
+      </c>
+      <c r="D40" s="74" t="s">
+        <v>407</v>
+      </c>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="91"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="74"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="91"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="74"/>
+      <c r="G42" s="74"/>
+    </row>
+    <row r="43" spans="2:7" ht="12.5" customHeight="1">
+      <c r="B43" s="91" t="s">
+        <v>394</v>
+      </c>
+      <c r="C43" s="74" t="s">
         <v>401</v>
       </c>
-      <c r="D25" s="66" t="s">
-        <v>410</v>
-      </c>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="83"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="83"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="83" t="s">
-        <v>400</v>
-      </c>
-      <c r="C28" s="66" t="s">
-        <v>402</v>
-      </c>
-      <c r="D28" s="66" t="s">
-        <v>407</v>
-      </c>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="83"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="83"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="83" t="s">
-        <v>399</v>
-      </c>
-      <c r="C31" s="61" t="s">
-        <v>403</v>
-      </c>
-      <c r="D31" s="66" t="s">
+      <c r="D43" s="74" t="s">
         <v>408</v>
       </c>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="83"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="83"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="83" t="s">
-        <v>399</v>
-      </c>
-      <c r="C34" s="61" t="s">
-        <v>298</v>
-      </c>
-      <c r="D34" s="61" t="s">
-        <v>409</v>
-      </c>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="61"/>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="83"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="83"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="83" t="s">
-        <v>399</v>
-      </c>
-      <c r="C37" s="66" t="s">
-        <v>404</v>
-      </c>
-      <c r="D37" s="66" t="s">
-        <v>411</v>
-      </c>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="83"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="83"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" s="83" t="s">
-        <v>399</v>
-      </c>
-      <c r="C40" s="66" t="s">
-        <v>405</v>
-      </c>
-      <c r="D40" s="66" t="s">
-        <v>412</v>
-      </c>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="66"/>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="83"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42" s="83"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="66"/>
-    </row>
-    <row r="43" spans="2:7" ht="12.5" customHeight="1">
-      <c r="B43" s="83" t="s">
-        <v>399</v>
-      </c>
-      <c r="C43" s="66" t="s">
-        <v>406</v>
-      </c>
-      <c r="D43" s="66" t="s">
-        <v>413</v>
-      </c>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="74"/>
+      <c r="G43" s="74"/>
     </row>
     <row r="44" spans="2:7" ht="12.5" customHeight="1">
-      <c r="B44" s="83"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="66"/>
+      <c r="B44" s="91"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
     </row>
     <row r="45" spans="2:7" ht="12.5" customHeight="1">
-      <c r="B45" s="83"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="66"/>
+      <c r="B45" s="91"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="74"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="74"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="83"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="66"/>
+      <c r="B46" s="91"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
+      <c r="F46" s="74"/>
+      <c r="G46" s="74"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="83"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="66"/>
+      <c r="B47" s="91"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="49">
